--- a/biology/Botanique/Cyathea_howeana/Cyathea_howeana.xlsx
+++ b/biology/Botanique/Cyathea_howeana/Cyathea_howeana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyathea howeana est une espèce de fougères de la famille des Cyatheaceae.
-Elle est endémique de l'île Lord Howe, où elle est fréquente sur les pentes et les sommets du Monts Gower et du Mont Lidgbird[2].
+Elle est endémique de l'île Lord Howe, où elle est fréquente sur les pentes et les sommets du Monts Gower et du Mont Lidgbird.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Descriptions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyathea howeana est une fougère arborescente de taille moyenne, au stipe érigé, qui atteint une hauteur de 2 à 3 mètres. Comme pour la plupart du genre Cyathea, le stipe est souvent recouvert de cicatrices foliaires issus des anciennes frondes, très peu d'écailles brunes sont présentes sur la couronne. Les frondes sont vert clair voir légèrement bleuâtre, les crosses sont remarquablement grandes et épaisses. Les sores sont attachés sur un côté, habituellement enfermés dans les lobes des pinnules.
 </t>
@@ -543,9 +557,11 @@
           <t>Endémisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyathea howeana est l'une des quatre espèces de fougères arborescentes endémiques de l'Île Lord Howe, les autres étant Cyathea brevipinna, Cyathea macarthurii et Cyathea robusta[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyathea howeana est l'une des quatre espèces de fougères arborescentes endémiques de l'Île Lord Howe, les autres étant Cyathea brevipinna, Cyathea macarthurii et Cyathea robusta.
 </t>
         </is>
       </c>
